--- a/codes/grades_kmeans.xlsx
+++ b/codes/grades_kmeans.xlsx
@@ -22,7 +22,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Grade</t>
+    <t>Grades</t>
   </si>
   <si>
     <t>F</t>
